--- a/quality_assurance/peer_reviews/Code_Review_Template.xlsx
+++ b/quality_assurance/peer_reviews/Code_Review_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\software-engineering\checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angus\software-engineering\quality_assurance\peer_reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A21C1-85A2-410E-87A1-53508ABD4BD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A4C7F-AE57-4CB6-A133-2D0C99DDDFF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="735" windowWidth="23100" windowHeight="14475" xr2:uid="{CC2A52A1-617E-4A41-9019-F0C6FCFAF71A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date:</t>
   </si>
@@ -81,20 +81,31 @@
     <t>Corrections</t>
   </si>
   <si>
-    <t>Please reference the sequence in: https://github.com/ltskinner/software-engineering/blob/master/quick_reference/PROGRAMMING.md</t>
-  </si>
-  <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>Please reference the sequence in:</t>
+  </si>
+  <si>
+    <t>https://github.com/ltskinner/software-engineering/blob/master/quick_reference/PROGRAMMING.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,16 +128,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,7 +456,7 @@
   <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +488,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +505,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -544,6 +563,9 @@
   <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{C42B245F-D8E9-4E1F-B15E-959D021D14D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>